--- a/data/trans_orig/Q47-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>175.3888330445944</v>
+        <v>175.3898529958205</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>175.1701143517389</v>
+        <v>175.2471869659123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>175.7816969948152</v>
+        <v>175.762734028423</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174.8774958942964</v>
+        <v>175.054402879638</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>162.7551710837951</v>
+        <v>162.7702137013679</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>162.6996044316341</v>
+        <v>162.7212168874871</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>162.7330429255452</v>
+        <v>162.8389047774286</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>162.4020192413755</v>
+        <v>162.4045003683088</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>169.2963028825798</v>
+        <v>169.1699187636281</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>169.1663198900725</v>
+        <v>169.137317456448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>169.4657346834346</v>
+        <v>169.4180189412709</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>169.0912317799572</v>
+        <v>169.1103862949913</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>176.5617866392402</v>
+        <v>176.5408642924951</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>176.675827715309</v>
+        <v>176.690913295575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>177.0778326196478</v>
+        <v>177.1348267615462</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>177.118314630988</v>
+        <v>177.2007574517089</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>163.8742124650917</v>
+        <v>163.8485271868771</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>163.8807172656961</v>
+        <v>163.902195248281</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>163.9552183245042</v>
+        <v>163.952865479141</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>164.361713745919</v>
+        <v>164.2725585359243</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>170.3666411993375</v>
+        <v>170.3839860278061</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>170.4313555043891</v>
+        <v>170.3226580891415</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>170.6881221428464</v>
+        <v>170.6906912286518</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>171.0602230977115</v>
+        <v>171.09184018056</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>176.3799112148124</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175.490858263687</v>
+        <v>175.4908582636869</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>163.5136855030817</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>175.2691270333859</v>
+        <v>175.2687836756608</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>175.6050406536845</v>
+        <v>175.5732151911837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>175.7610922050301</v>
+        <v>175.7727283441248</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>174.7394112389474</v>
+        <v>174.6494623847407</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>162.984336860547</v>
+        <v>163.018461512763</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>163.1041097519782</v>
+        <v>163.0697997520481</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>163.2987320599229</v>
+        <v>163.2560890262898</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>163.1658032846028</v>
+        <v>163.140257040714</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>169.6582459589226</v>
+        <v>169.7105539416325</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>169.7777001469265</v>
+        <v>169.7044933366389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>169.625159054135</v>
+        <v>169.6690389929392</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>168.8890005093966</v>
+        <v>168.8172718573617</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>176.3205557051199</v>
+        <v>176.3089985989442</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>176.6735682916529</v>
+        <v>176.6465985302816</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>177.0292758872085</v>
+        <v>177.0438124177584</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>176.2601426022894</v>
+        <v>176.2658211094772</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>163.9942252691583</v>
+        <v>164.0262986921451</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>164.1909207069368</v>
+        <v>164.2015014860818</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>164.2996408960793</v>
+        <v>164.2746066880423</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>164.2564597299957</v>
+        <v>164.2322008940077</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>170.6207019285728</v>
+        <v>170.6629165503879</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>170.8036327877166</v>
+        <v>170.8191656516311</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>170.6988693171113</v>
+        <v>170.7681176209674</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>170.1236040084091</v>
+        <v>170.0960731817966</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>174.0033732371856</v>
+        <v>174.0555384223898</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>174.278067656534</v>
+        <v>174.3082263668572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>174.9605333257062</v>
+        <v>174.9391128305848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175.1991617713059</v>
+        <v>175.303577264674</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>161.6352527436468</v>
+        <v>161.6692927693567</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>161.423197365767</v>
+        <v>161.3959638772581</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>162.6746486475922</v>
+        <v>162.622410663574</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>163.1831373466902</v>
+        <v>163.2145937751064</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>167.6403885078182</v>
+        <v>167.6143697987322</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>167.7040997659785</v>
+        <v>167.6995155730005</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>168.8160335222665</v>
+        <v>168.8344321162097</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>169.1854550565406</v>
+        <v>169.2841323656808</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>175.0178186426392</v>
+        <v>175.0248753704902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>175.3439593381999</v>
+        <v>175.3848165973949</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>176.1260775598968</v>
+        <v>176.0904614683013</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>176.4504917267511</v>
+        <v>176.4416001296877</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>162.6512773042072</v>
+        <v>162.6826388339506</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>162.4212277342049</v>
+        <v>162.3872951348679</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>163.6276531020456</v>
+        <v>163.6446920686399</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>164.0082062808786</v>
+        <v>164.0489197979461</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>168.6056070098617</v>
+        <v>168.6331740863653</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>168.7357396858153</v>
+        <v>168.7337348370658</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>169.8251870956739</v>
+        <v>169.86214011734</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>170.2271952195399</v>
+        <v>170.2842632704796</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>172.4752775675038</v>
+        <v>172.4982808968592</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>172.2790087068107</v>
+        <v>172.2472675893248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173.5853660243156</v>
+        <v>173.5962630566097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174.0420421324615</v>
+        <v>173.9809236434676</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>159.9093100376562</v>
+        <v>159.890848861926</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>160.2540006249701</v>
+        <v>160.2794161656813</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>161.5035295370433</v>
+        <v>161.5425546636323</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>162.4601261255416</v>
+        <v>162.4353716803711</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>166.3220098558371</v>
+        <v>166.2421956951302</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166.200762110417</v>
+        <v>166.2266624069081</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167.6187451184014</v>
+        <v>167.5900890373538</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>168.1374852512171</v>
+        <v>168.1714442564289</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>173.7690800537775</v>
+        <v>173.7650862769347</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>173.4049703702762</v>
+        <v>173.3722447943786</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>174.8026449396509</v>
+        <v>174.8370953745833</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>175.0251368721795</v>
+        <v>175.0372719991915</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>161.015995508838</v>
+        <v>161.0181938595926</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>161.281122652089</v>
+        <v>161.2839810754515</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>162.5615482626204</v>
+        <v>162.5768240283515</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>163.1917719697777</v>
+        <v>163.2361174162469</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>167.4600775840123</v>
+        <v>167.4417463799278</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>167.3952501606861</v>
+        <v>167.2880928992171</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>168.6670936675813</v>
+        <v>168.678769801553</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>168.9913901915341</v>
+        <v>169.0051780982417</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>168.4872458545194</v>
+        <v>168.5330849452443</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>169.084603875381</v>
+        <v>169.1199156097908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>170.8866843079796</v>
+        <v>170.945340944502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172.2165245157576</v>
+        <v>172.2526307799405</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>158.2738072129022</v>
+        <v>158.2323768143848</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>158.5196156654048</v>
+        <v>158.5323931067247</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>158.3664052655101</v>
+        <v>158.4023960314377</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>161.0101928696376</v>
+        <v>160.9819460710544</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>163.3373411062462</v>
+        <v>163.358612285939</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>163.7752461065516</v>
+        <v>163.7684854101043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164.5954650728764</v>
+        <v>164.5624109976594</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>166.6695847453909</v>
+        <v>166.6482765960821</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>169.8974295441957</v>
+        <v>170.017718630352</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>170.3961565619524</v>
+        <v>170.3927331136109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>172.2924351431519</v>
+        <v>172.3166027198285</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173.2614217322061</v>
+        <v>173.2592032358444</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>159.4468155085189</v>
+        <v>159.4515416086145</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>159.6254837125513</v>
+        <v>159.7109741571634</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>159.5565764204599</v>
+        <v>159.6112958982933</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>161.7162446712216</v>
+        <v>161.7359778459015</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>164.5356396923935</v>
+        <v>164.5354966918122</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>164.897738025507</v>
+        <v>164.8955831350547</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>165.8066468247749</v>
+        <v>165.7540250822003</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>167.5269336256755</v>
+        <v>167.4873278426334</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>167.5351092257428</v>
+        <v>167.5605421342416</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>167.2938641609546</v>
+        <v>167.3120809524174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>168.6232249433744</v>
+        <v>168.5873855175806</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169.3614385913109</v>
+        <v>169.4306367905965</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>156.8888227371823</v>
+        <v>156.8693089874131</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>157.734641012713</v>
+        <v>157.7647106356349</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>157.8764837019836</v>
+        <v>157.9111356126863</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>159.5922095760883</v>
+        <v>159.614839905349</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>161.7980198682899</v>
+        <v>161.853308761023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162.5215530330628</v>
+        <v>162.4620061518361</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162.9895549078391</v>
+        <v>163.0557138632603</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>164.3888169602838</v>
+        <v>164.3681410983007</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>168.8371514056094</v>
+        <v>168.8483388018235</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>168.9452540183259</v>
+        <v>168.9740339519798</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>170.102448536535</v>
+        <v>170.0640887436641</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>170.4246603043051</v>
+        <v>170.4925949951912</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>158.1092120161745</v>
+        <v>158.0966482755457</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>159.1704988735462</v>
+        <v>159.2029289183747</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>159.2009313392759</v>
+        <v>159.3001153021904</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>160.4249941379389</v>
+        <v>160.4293876824141</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>163.0275190890935</v>
+        <v>163.0119986624761</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>163.772528191804</v>
+        <v>163.7975775701183</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>164.3191210590496</v>
+        <v>164.2836010632182</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>165.2293642849148</v>
+        <v>165.240237361122</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>168.3067567764982</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168.2388020818995</v>
+        <v>168.2388020818994</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>156.4611324138874</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>166.4764426110442</v>
+        <v>166.4498289185168</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>166.5726826180523</v>
+        <v>166.6217347255897</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>167.4107242885062</v>
+        <v>167.4285733830073</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>167.6375258112779</v>
+        <v>167.6650965418773</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>155.7137823959457</v>
+        <v>155.6489134569182</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>156.6224564946696</v>
+        <v>156.6844872492332</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>156.8906996351688</v>
+        <v>156.8449776209596</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>158.3223003957657</v>
+        <v>158.2716387474544</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>159.9511944148321</v>
+        <v>159.9204294869629</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>160.8729371869283</v>
+        <v>160.7772581767775</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>161.2661614910155</v>
+        <v>161.2903473683664</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>162.2094397071384</v>
+        <v>162.2518247795612</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>168.2333088515217</v>
+        <v>168.141468555553</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>168.5825900249766</v>
+        <v>168.4730269229326</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>169.1595995670535</v>
+        <v>169.1908448456275</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168.8768779445336</v>
+        <v>168.8505511471397</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>157.2400832035233</v>
+        <v>157.2398725094891</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>158.1196395855605</v>
+        <v>158.1318546385204</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>158.4412039182475</v>
+        <v>158.4680613404521</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>159.1561555813604</v>
+        <v>159.1595314365723</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>161.4764314786238</v>
+        <v>161.4069492016937</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>162.3396758129158</v>
+        <v>162.3635260622177</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>162.8228639222729</v>
+        <v>162.7249763225347</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>163.1552860905721</v>
+        <v>163.1772021043616</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>172.9395355326013</v>
+        <v>172.943260940433</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>172.8764492776783</v>
+        <v>172.8561116756842</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>173.5852221388689</v>
+        <v>173.5222643105131</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>173.428029193425</v>
+        <v>173.4686859511562</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>160.6456869072326</v>
+        <v>160.6514886225675</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>160.7987434034213</v>
+        <v>160.7911117052012</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>161.2327066281573</v>
+        <v>161.1923514615439</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>161.9036522355279</v>
+        <v>161.9065604545671</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>166.7078031994301</v>
+        <v>166.7134362621673</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>166.7750909978487</v>
+        <v>166.7756916948959</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>167.3373561093734</v>
+        <v>167.3392253163208</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>167.5505442014831</v>
+        <v>167.5420387446536</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>173.4237117341938</v>
+        <v>173.4350992178273</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>173.3921753622891</v>
+        <v>173.3832673739154</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>174.1124571220398</v>
+        <v>174.0954608229893</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>173.9856493957674</v>
+        <v>173.9990854331447</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>161.1109958098429</v>
+        <v>161.0907964983102</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>161.2685947287239</v>
+        <v>161.2678290466687</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>161.7088348250587</v>
+        <v>161.6879564373868</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>162.2908610132243</v>
+        <v>162.2770546146193</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>167.1901405949151</v>
+        <v>167.1686526005541</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>167.2255616375207</v>
+        <v>167.2461748704604</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>167.7885548220953</v>
+        <v>167.8039461639804</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>168.0093534312545</v>
+        <v>167.9946960362607</v>
       </c>
     </row>
     <row r="28">
